--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864CE8C1-681E-4CF7-898E-2DD2CF9B558B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{019FB0D1-80AF-40A0-B79C-AE3440D49C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>UserName</t>
   </si>
@@ -94,13 +95,61 @@
     <t>VISA</t>
   </si>
   <si>
-    <t>Jun</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
     <t>PaymentDetails</t>
+  </si>
+  <si>
+    <t>ShippingAddress</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>LotusWave</t>
+  </si>
+  <si>
+    <t>844 N Colony Rd</t>
+  </si>
+  <si>
+    <t>Wallingford</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>06492</t>
+  </si>
+  <si>
+    <t>yoga.manoj6@gmail.com</t>
+  </si>
+  <si>
+    <t>BiillingAddress</t>
+  </si>
+  <si>
+    <t>Akhil</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>4444444444444448</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Plat no2dream Valley</t>
+  </si>
+  <si>
+    <t>PaypalDetails</t>
+  </si>
+  <si>
+    <t>Sravan@123</t>
+  </si>
+  <si>
+    <t>Skchinna28@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -110,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +171,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,12 +210,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -441,23 +500,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" customWidth="1"/>
-    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -477,37 +540,40 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -526,56 +592,139 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="G3" t="s">
-        <v>21</v>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
       </c>
       <c r="H3" t="s">
         <v>21</v>
       </c>
       <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>12345</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2025</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="4">
-        <v>2345234523452340</v>
-      </c>
-      <c r="N4" s="3">
-        <v>2023</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="4">
-        <v>345</v>
-      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="4">
+        <v>8500563032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>46008</v>
+      </c>
+      <c r="L6">
+        <v>9998999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{F914D97D-9AB4-479F-B5C1-406A7A6E213A}"/>
     <hyperlink ref="F2" r:id="rId3" xr:uid="{654737CF-7ECC-40EB-8F54-3F2A1D6BA9EB}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{12A1797F-F974-4160-9C50-70B2C231A5AA}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{9FB4A770-06D2-498B-B228-7CA3537226F1}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{1321EB4E-CF60-4C31-8791-C0B9D323E124}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{019FB0D1-80AF-40A0-B79C-AE3440D49C6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0ED3E05E-BC6C-4877-A2A3-D9B372279D22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0ED3E05E-BC6C-4877-A2A3-D9B372279D22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{334D3E70-5419-4384-BB5A-1EDE429CFECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>UserName</t>
   </si>
@@ -150,6 +150,36 @@
   </si>
   <si>
     <t>Skchinna28@gmail.com</t>
+  </si>
+  <si>
+    <t>Forgetpassoword</t>
+  </si>
+  <si>
+    <t>oxo6552@gmail.com</t>
+  </si>
+  <si>
+    <t>oxopassword@1</t>
+  </si>
+  <si>
+    <t>fromAddress</t>
+  </si>
+  <si>
+    <t>toAddress</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>Fwd: Reset your OXO password</t>
+  </si>
+  <si>
+    <t>Set a New Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yoga Manoj &lt;yoga.manoj6@gmail.com&gt;</t>
   </si>
 </sst>
 </file>
@@ -500,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU7"/>
+  <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,6 +548,10 @@
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
@@ -572,6 +606,18 @@
       <c r="Q1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -714,6 +760,29 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -723,8 +792,11 @@
     <hyperlink ref="F5" r:id="rId4" xr:uid="{12A1797F-F974-4160-9C50-70B2C231A5AA}"/>
     <hyperlink ref="F7" r:id="rId5" xr:uid="{9FB4A770-06D2-498B-B228-7CA3537226F1}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{1321EB4E-CF60-4C31-8791-C0B9D323E124}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{B3375031-7CB9-4434-B94F-505ECB75F14D}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{F80D7218-6F13-4CC7-A734-BBC2EF158129}"/>
+    <hyperlink ref="S8" r:id="rId9" xr:uid="{1A31B34D-F752-4117-9323-14AAC5AB58CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{334D3E70-5419-4384-BB5A-1EDE429CFECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C52DDF9F-FE2C-4C66-819D-82FD25B57173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="20790" windowHeight="11820" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="20790" windowHeight="11820" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>UserName</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Yoga Manoj &lt;yoga.manoj6@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>GoodTipsBlog</t>
   </si>
 </sst>
 </file>
@@ -530,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU8"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:S1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +557,7 @@
     <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -619,7 +622,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -640,7 +643,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -667,7 +670,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -688,7 +691,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -721,7 +724,7 @@
         <v>8500563032</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -747,7 +750,7 @@
         <v>9998999999</v>
       </c>
     </row>
-    <row r="7" spans="1:47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -761,7 +764,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -783,6 +786,27 @@
       <c r="U8" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="9" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -795,8 +819,11 @@
     <hyperlink ref="F8" r:id="rId7" xr:uid="{B3375031-7CB9-4434-B94F-505ECB75F14D}"/>
     <hyperlink ref="C8" r:id="rId8" xr:uid="{F80D7218-6F13-4CC7-A734-BBC2EF158129}"/>
     <hyperlink ref="S8" r:id="rId9" xr:uid="{1A31B34D-F752-4117-9323-14AAC5AB58CC}"/>
+    <hyperlink ref="C9" r:id="rId10" display="Mahendra@123.com" xr:uid="{C26AF29D-7163-4FDA-838E-E54F8486F5C4}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{60162E2B-F534-4D60-AC91-6CA88657691E}"/>
+    <hyperlink ref="F9" r:id="rId12" xr:uid="{DECB3970-A559-427A-A3B4-2CE7C9F0784C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C52DDF9F-FE2C-4C66-819D-82FD25B57173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E1042DE1-4DDC-43D8-8045-6BFA91F51CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="20790" windowHeight="11820" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="20520" windowHeight="9360" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,7 +622,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -787,7 +787,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>

--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -1,19 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E1042DE1-4DDC-43D8-8045-6BFA91F51CEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="20520" windowHeight="9360" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23100" windowHeight="10320" tabRatio="571"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:J17"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
   <si>
     <t>UserName</t>
   </si>
@@ -183,16 +181,115 @@
   </si>
   <si>
     <t>GoodTipsBlog</t>
+  </si>
+  <si>
+    <t>AMEXPaymentDetails</t>
+  </si>
+  <si>
+    <t>MasterCardPaymentDetails</t>
+  </si>
+  <si>
+    <t>DiscoverPaymentDetails</t>
+  </si>
+  <si>
+    <t>371144371144376</t>
+  </si>
+  <si>
+    <t>5111005111051128</t>
+  </si>
+  <si>
+    <t>6011016011016011</t>
+  </si>
+  <si>
+    <t>Promocode</t>
+  </si>
+  <si>
+    <t>OXODIS40</t>
+  </si>
+  <si>
+    <t>AMEX</t>
+  </si>
+  <si>
+    <t>MasterCard</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>ProductRegistration</t>
+  </si>
+  <si>
+    <t>Model#</t>
+  </si>
+  <si>
+    <t>Serial#</t>
+  </si>
+  <si>
+    <t>ManufacturingDate</t>
+  </si>
+  <si>
+    <t>Location Purchased</t>
+  </si>
+  <si>
+    <t>PurchaseDate</t>
+  </si>
+  <si>
+    <t>03/99</t>
+  </si>
+  <si>
+    <t>03/08/2020</t>
+  </si>
+  <si>
+    <t>El Paso</t>
+  </si>
+  <si>
+    <t>akhil.qatesting@gmail.com</t>
+  </si>
+  <si>
+    <t>NewsLetterSubscription</t>
+  </si>
+  <si>
+    <t>ProductRecall</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>Test Test</t>
+  </si>
+  <si>
+    <t>7049 Westwind Dr Apt 1001</t>
+  </si>
+  <si>
+    <t>79912</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>TrackOrder</t>
+  </si>
+  <si>
+    <t>300003430</t>
+  </si>
+  <si>
+    <t>OrderID</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Mahendr.selenium@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -252,6 +349,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -313,7 +412,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -348,7 +447,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -525,39 +624,46 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -577,52 +683,82 @@
         <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -642,8 +778,9 @@
         <v>2</v>
       </c>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -654,44 +791,44 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
       <c r="I3" t="s">
         <v>21</v>
       </c>
       <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
         <v>22</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>12345</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>2025</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -705,26 +842,27 @@
       <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="4">
+      <c r="M5" s="4">
         <v>8500563032</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -734,23 +872,23 @@
       <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6">
         <v>46008</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>9998999999</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -763,8 +901,9 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -774,20 +913,21 @@
       <c r="F8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="R8" t="s">
+      <c r="G8" s="1"/>
+      <c r="S8" t="s">
         <v>52</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>50</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -807,23 +947,182 @@
         <v>2</v>
       </c>
       <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10">
+        <v>2026</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11">
+        <v>2026</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12">
+        <v>2026</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14">
+        <v>9898989898</v>
+      </c>
+      <c r="W14">
+        <v>123456789</v>
+      </c>
+      <c r="X14">
+        <v>987654321</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16">
+        <v>9898989898</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{F914D97D-9AB4-479F-B5C1-406A7A6E213A}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{654737CF-7ECC-40EB-8F54-3F2A1D6BA9EB}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{12A1797F-F974-4160-9C50-70B2C231A5AA}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{9FB4A770-06D2-498B-B228-7CA3537226F1}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{1321EB4E-CF60-4C31-8791-C0B9D323E124}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{B3375031-7CB9-4434-B94F-505ECB75F14D}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{F80D7218-6F13-4CC7-A734-BBC2EF158129}"/>
-    <hyperlink ref="S8" r:id="rId9" xr:uid="{1A31B34D-F752-4117-9323-14AAC5AB58CC}"/>
-    <hyperlink ref="C9" r:id="rId10" display="Mahendra@123.com" xr:uid="{C26AF29D-7163-4FDA-838E-E54F8486F5C4}"/>
-    <hyperlink ref="B9" r:id="rId11" xr:uid="{60162E2B-F534-4D60-AC91-6CA88657691E}"/>
-    <hyperlink ref="F9" r:id="rId12" xr:uid="{DECB3970-A559-427A-A3B4-2CE7C9F0784C}"/>
+    <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="C8" r:id="rId8"/>
+    <hyperlink ref="T8" r:id="rId9"/>
+    <hyperlink ref="C9" r:id="rId10" display="Mahendra@123.com"/>
+    <hyperlink ref="B9" r:id="rId11"/>
+    <hyperlink ref="F9" r:id="rId12"/>
+    <hyperlink ref="F14" r:id="rId13"/>
+    <hyperlink ref="F15" r:id="rId14"/>
+    <hyperlink ref="F16" r:id="rId15"/>
+    <hyperlink ref="AE17" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308E199E-3D1A-4AFD-9ED7-6E185D14B1CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23100" windowHeight="10320" tabRatio="571"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23100" windowHeight="10320" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -285,11 +286,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,46 +625,46 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -758,7 +759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -780,7 +781,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -807,7 +808,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -828,7 +829,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -862,7 +863,7 @@
         <v>8500563032</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -888,7 +889,7 @@
         <v>9998999999</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -903,7 +904,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -927,7 +928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -949,7 +950,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -969,7 +970,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -989,7 +990,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1017,7 +1018,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1055,7 +1056,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -1105,22 +1106,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F7" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="C8" r:id="rId8"/>
-    <hyperlink ref="T8" r:id="rId9"/>
-    <hyperlink ref="C9" r:id="rId10" display="Mahendra@123.com"/>
-    <hyperlink ref="B9" r:id="rId11"/>
-    <hyperlink ref="F9" r:id="rId12"/>
-    <hyperlink ref="F14" r:id="rId13"/>
-    <hyperlink ref="F15" r:id="rId14"/>
-    <hyperlink ref="F16" r:id="rId15"/>
-    <hyperlink ref="AE17" r:id="rId16"/>
+    <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="T8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C9" r:id="rId10" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AE17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>

--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308E199E-3D1A-4AFD-9ED7-6E185D14B1CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96550F5A-AD64-4F2F-A4AE-85A7AF5CC57D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23100" windowHeight="10320" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>UserName</t>
   </si>
@@ -281,6 +281,15 @@
   </si>
   <si>
     <t>Mahendr.selenium@gmail.com</t>
+  </si>
+  <si>
+    <t>InvalidPaymentDetails</t>
+  </si>
+  <si>
+    <t>5111005111050000</t>
+  </si>
+  <si>
+    <t>Jun</t>
   </si>
 </sst>
 </file>
@@ -633,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +661,7 @@
     <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
@@ -1102,6 +1112,26 @@
       </c>
       <c r="AE17" s="1" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18">
+        <v>2026</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>89</v>
+      </c>
+      <c r="R18">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96550F5A-AD64-4F2F-A4AE-85A7AF5CC57D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F9CCB8-011A-4F36-9781-620C3B8698F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23100" windowHeight="10320" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15255" windowHeight="6615" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
   <si>
     <t>UserName</t>
   </si>
@@ -290,6 +290,30 @@
   </si>
   <si>
     <t>Jun</t>
+  </si>
+  <si>
+    <t>FooterLinks</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Contact Us,FAQ,Product Registration,Privacy Policy, Voluntary Recall, Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>Headderlink</t>
+  </si>
+  <si>
+    <t>Cookin &amp; Baking</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POP Containers, Smart Seal, Food Storage, Green Saver, On The Go, Measuring Cups &amp; Spoons, Whisks &amp; Mashers, Mixing Bowls, Scales, Peelers &amp; Choppers, Graters &amp; Slicers, Cookware, Bakeware, Baking &amp; Pastry Tools, Thermometers and Timers, Tool Sets, Fruits and Vegetable Tools, Salad Tools, Garlic and Herb Tools, Egg Tools, Grill Tools, Forks &amp; Tongs, Brushes, Meat &amp; Seafood Tools, Dessert Tools, Dessert Tools</t>
+  </si>
+  <si>
+    <t>Beverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coffee Makers and Grinders, Tea, Kettles, Pour Overs &amp; French Press, Filters &amp; Accessories, Bar Tools, Ice Trays</t>
   </si>
 </sst>
 </file>
@@ -299,7 +323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +342,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -361,6 +392,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -642,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" topLeftCell="AH21" workbookViewId="0">
+      <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,10 +709,13 @@
     <col min="25" max="26" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="51.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="101.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -768,8 +809,17 @@
       <c r="AE1" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -791,7 +841,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -818,7 +868,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -839,7 +889,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -873,7 +923,7 @@
         <v>8500563032</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -899,7 +949,7 @@
         <v>9998999999</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -914,7 +964,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -938,7 +988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -960,7 +1010,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -980,7 +1030,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1000,7 +1050,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1020,7 +1070,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1028,7 +1078,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1066,7 +1116,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1074,7 +1124,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1100,7 +1150,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -1114,7 +1164,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -1132,6 +1182,30 @@
       </c>
       <c r="R18">
         <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF20" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG21" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F9CCB8-011A-4F36-9781-620C3B8698F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A0D568BB-BD3A-4144-8E7D-BE6637BB3628}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15255" windowHeight="6615" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="17235" windowHeight="10860" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
   <si>
     <t>UserName</t>
   </si>
@@ -307,13 +308,25 @@
     <t>Cookin &amp; Baking</t>
   </si>
   <si>
-    <t xml:space="preserve"> POP Containers, Smart Seal, Food Storage, Green Saver, On The Go, Measuring Cups &amp; Spoons, Whisks &amp; Mashers, Mixing Bowls, Scales, Peelers &amp; Choppers, Graters &amp; Slicers, Cookware, Bakeware, Baking &amp; Pastry Tools, Thermometers and Timers, Tool Sets, Fruits and Vegetable Tools, Salad Tools, Garlic and Herb Tools, Egg Tools, Grill Tools, Forks &amp; Tongs, Brushes, Meat &amp; Seafood Tools, Dessert Tools, Dessert Tools</t>
-  </si>
-  <si>
     <t>Beverage</t>
   </si>
   <si>
     <t xml:space="preserve"> Coffee Makers and Grinders, Tea, Kettles, Pour Overs &amp; French Press, Filters &amp; Accessories, Bar Tools, Ice Trays</t>
+  </si>
+  <si>
+    <t>Cookin &amp; Baking Page Title</t>
+  </si>
+  <si>
+    <t>Coffee Makers - Coffee &amp; Tea - Beverage - Products,Tea - Coffee &amp; Tea - Beverage - Products,Kettles - Coffee &amp; Tea - Beverage - Products,Pour Over and French Press - Coffee &amp; Tea - Beverage - Products,Filters &amp; Accessories - Coffee &amp; Tea - Beverage - Products,Bar Tools - Barware - Beverage - Products,Ice Trays - Barware - Beverage - Products</t>
+  </si>
+  <si>
+    <t>Beverage Page Title</t>
+  </si>
+  <si>
+    <t>OXO Good Grips POP Containers,Smart Seal - Food Containers - Cooking &amp; Baking - Products,Green Savers - Food Containers - Cooking &amp; Baking - Products,Food Storage - Food Containers - Cooking &amp; Baking - Products,On the Go  - Food Containers - Cooking &amp; Baking - Products,Measuring Cups &amp; Spoons - Mix &amp; Measure - Cooking &amp; Baking - Products,Whisks &amp; Mashers - Mix &amp; Measure - Cooking &amp; Baking - Products,Mixing Bowls - Mix &amp; Measure - Cooking &amp; Baking - Products,Scales - Mix &amp; Measure - Cooking &amp; Baking - Products,Peelers and Choppers - Cut, Slice, Chop - Cooking &amp; Baking - Products,Graters and Slicers - Cut, Slice, Chop - Cooking &amp; Baking - Products,Knives Scissors Cutting Boards - Cut, Slice, Chop - Cooking &amp; Baking - Products,Whisks &amp; Mashers - Utensils - Cooking &amp; Baking - Products,Spoons, Spatulas &amp; Turners - Utensils - Cooking &amp; Baking - Products,Forks &amp; Tongs - Utensils - Cooking &amp; Baking - Products,Brushes - Utensils - Cooking &amp; Baking - Products,Tool Sets - Tools and Gadgets - Cooking &amp; Baking - Products,Cookware,Bakeware - Cook &amp; Bakeware - Cooking &amp; Baking - Products,Baking and Pastry Tools - Cook &amp; Bakeware - Cooking &amp; Baking - Products,Sets - Cook &amp; Bakeware - Cooking &amp; Baking - Products,Salt Pepper Sugar - Tools and Gadgets - Cooking &amp; Baking - Products,Thermometers and Timers - Tools and Gadgets - Cooking &amp; Baking - Products,Can and Jar Openers - Tools and Gadgets - Cooking &amp; Baking - Products,Colanders Steamers and Strainers - Tools and Gadgets - Cooking &amp; Baking - Products,Tool Sets - Tools and Gadgets - Cooking &amp; Baking - Products,Fruit and Veggie Tools - Fruits &amp; Vegetables - Cooking &amp; Baking - Products,Salad Tools - Fruits &amp; Vegetables - Cooking &amp; Baking - Products,Garlic and Herb Tools - Fruits &amp; Vegetables - Cooking &amp; Baking - Products,Egg Tools - Specialty Tools - Cooking &amp; Baking - Products,Grill Tools - Specialty Tools - Cooking &amp; Baking - Products,Meat and Seafood Tools - Specialty Tools - Cooking &amp; Baking - Products,Dessert Tools - Specialty Tools - Cooking &amp; Baking - Products,Pressure Cooker Tools - Specialty Tools - Cooking &amp; Baking - Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> POP Containers, Smart Seal, Green Saver, Food Storage, On The Go, Measuring Cups &amp; Spoons, Whisks &amp; Mashers, Mixing Bowls, Scales, Peelers &amp; Choppers, Graters &amp; Slicers, Knives, Scissors &amp; Cutting Boards, Whisks &amp; Mashers, Spoons, Spatulas &amp; Turners, Forks &amp; Tongs, Brushes, Sets, Cookware, Bakeware, Baking &amp; Pastry Tools, Sets, Salt, Pepper &amp; Sugar, Thermometers and Timers, Can &amp; Jar Openers, Colanders, Steamers &amp; Strainers, Tool Sets, Fruits and Vegetable Tools, Salad Tools, Garlic and Herb Tools, Egg Tools, Grill Tools, Meat &amp; Seafood Tools, Dessert Tools, Pressure Cooker Tools</t>
   </si>
 </sst>
 </file>
@@ -680,9 +693,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH21"/>
+  <dimension ref="A1:AJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH21" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AG21" workbookViewId="0">
       <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
@@ -713,9 +726,11 @@
     <col min="32" max="32" width="89.7109375" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="51.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="101.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="92.42578125" style="12" customWidth="1"/>
+    <col min="36" max="36" width="44.42578125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -816,10 +831,16 @@
         <v>94</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -841,7 +862,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -868,7 +889,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -889,7 +910,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -923,7 +944,7 @@
         <v>8500563032</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -949,7 +970,7 @@
         <v>9998999999</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -964,7 +985,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -988,7 +1009,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1010,7 +1031,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1030,7 +1051,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1050,7 +1071,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1070,7 +1091,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -1078,7 +1099,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>65</v>
       </c>
@@ -1116,7 +1137,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>75</v>
       </c>
@@ -1124,7 +1145,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>76</v>
       </c>
@@ -1150,7 +1171,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>82</v>
       </c>
@@ -1164,7 +1185,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>87</v>
       </c>
@@ -1184,12 +1205,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>90</v>
       </c>
@@ -1197,15 +1218,21 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:34" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="330" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>93</v>
       </c>
       <c r="AG21" s="12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AH21" t="s">
-        <v>97</v>
+        <v>96</v>
+      </c>
+      <c r="AI21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ21" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -1,19 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A0D568BB-BD3A-4144-8E7D-BE6637BB3628}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="17235" windowHeight="10860" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="17232" windowHeight="10860" tabRatio="571"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
   <si>
     <t>UserName</t>
   </si>
@@ -29,9 +27,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>mahendr.selenium@gmail.com</t>
-  </si>
-  <si>
     <t>DataSet</t>
   </si>
   <si>
@@ -53,9 +48,6 @@
     <t>k</t>
   </si>
   <si>
-    <t>Mahendra123</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -122,9 +114,6 @@
     <t>06492</t>
   </si>
   <si>
-    <t>yoga.manoj6@gmail.com</t>
-  </si>
-  <si>
     <t>BiillingAddress</t>
   </si>
   <si>
@@ -245,9 +234,6 @@
     <t>El Paso</t>
   </si>
   <si>
-    <t>akhil.qatesting@gmail.com</t>
-  </si>
-  <si>
     <t>NewsLetterSubscription</t>
   </si>
   <si>
@@ -272,18 +258,12 @@
     <t>TrackOrder</t>
   </si>
   <si>
-    <t>300003430</t>
-  </si>
-  <si>
     <t>OrderID</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>Mahendr.selenium@gmail.com</t>
-  </si>
-  <si>
     <t>InvalidPaymentDetails</t>
   </si>
   <si>
@@ -327,16 +307,46 @@
   </si>
   <si>
     <t xml:space="preserve"> POP Containers, Smart Seal, Green Saver, Food Storage, On The Go, Measuring Cups &amp; Spoons, Whisks &amp; Mashers, Mixing Bowls, Scales, Peelers &amp; Choppers, Graters &amp; Slicers, Knives, Scissors &amp; Cutting Boards, Whisks &amp; Mashers, Spoons, Spatulas &amp; Turners, Forks &amp; Tongs, Brushes, Sets, Cookware, Bakeware, Baking &amp; Pastry Tools, Sets, Salt, Pepper &amp; Sugar, Thermometers and Timers, Can &amp; Jar Openers, Colanders, Steamers &amp; Strainers, Tool Sets, Fruits and Vegetable Tools, Salad Tools, Garlic and Herb Tools, Egg Tools, Grill Tools, Meat &amp; Seafood Tools, Dessert Tools, Pressure Cooker Tools</t>
+  </si>
+  <si>
+    <t>oxo.qatesting@gmail.com</t>
+  </si>
+  <si>
+    <t>oxoqa@123</t>
+  </si>
+  <si>
+    <t>Forgetpassword</t>
+  </si>
+  <si>
+    <t>POBoxAddress</t>
+  </si>
+  <si>
+    <t>ameesarakonda@helenoftroy.com</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>PO Box 123</t>
+  </si>
+  <si>
+    <t>Hagerstown</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>100845622</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,54 +695,54 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG21" workbookViewId="0">
-      <selection activeCell="AH21" sqref="AH21"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
+    <col min="8" max="8" width="27.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="29" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="51.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="101.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="92.42578125" style="12" customWidth="1"/>
-    <col min="36" max="36" width="44.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="69.88671875" style="12" customWidth="1"/>
+    <col min="34" max="34" width="101.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="92.44140625" style="12" customWidth="1"/>
+    <col min="36" max="36" width="44.44140625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36">
       <c r="A1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -741,146 +751,146 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG1" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI1" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ1" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L3">
         <v>12345</v>
@@ -889,79 +899,79 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1"/>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P4" s="3">
         <v>2025</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R4" s="4">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>29</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="M5" s="4">
         <v>8500563032</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
         <v>36</v>
       </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L6">
         <v>46008</v>
@@ -970,291 +980,321 @@
         <v>9998999999</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7">
+        <v>21740</v>
+      </c>
+      <c r="M7" s="4">
+        <v>9898989898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:36">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="S9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="S8" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U8" t="s">
+      <c r="U9" t="s">
+        <v>47</v>
+      </c>
+      <c r="V9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
+      <c r="A10" t="s">
         <v>50</v>
       </c>
-      <c r="V8" t="s">
+      <c r="B10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="A11" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="N11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="N10" t="s">
-        <v>62</v>
-      </c>
-      <c r="O10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="P10">
-        <v>2026</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="P11">
         <v>2026</v>
       </c>
       <c r="Q11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R11">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P12">
         <v>2026</v>
       </c>
       <c r="Q12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R12">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36">
       <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N13" t="s">
+        <v>61</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13">
+        <v>2026</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <v>9898989898</v>
+      </c>
+      <c r="W15">
+        <v>123456789</v>
+      </c>
+      <c r="X15">
+        <v>987654321</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" t="s">
+        <v>77</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="M17">
+        <v>9898989898</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" t="s">
         <v>60</v>
       </c>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14">
-        <v>9898989898</v>
-      </c>
-      <c r="W14">
-        <v>123456789</v>
-      </c>
-      <c r="X14">
-        <v>987654321</v>
-      </c>
-      <c r="Y14" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA14" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" t="s">
-        <v>73</v>
-      </c>
-      <c r="K16" t="s">
-        <v>81</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="M16">
-        <v>9898989898</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="O19" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AC17" s="8" t="s">
+      <c r="P19">
+        <v>2026</v>
+      </c>
+      <c r="Q19" t="s">
         <v>83</v>
       </c>
-      <c r="AD17" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE17" s="1" t="s">
+      <c r="R19">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF21" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="22" spans="1:36" ht="172.8">
+      <c r="A22" t="s">
         <v>87</v>
       </c>
-      <c r="N18" t="s">
-        <v>63</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="P18">
-        <v>2026</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>89</v>
-      </c>
-      <c r="R18">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="AG22" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH22" t="s">
         <v>90</v>
       </c>
-      <c r="AF20" s="10" t="s">
+      <c r="AI22" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ22" s="12" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" ht="330" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG21" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AI21" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ21" s="12" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="T8" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C9" r:id="rId10" display="Mahendra@123.com" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AE17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="F9" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="T9" r:id="rId9"/>
+    <hyperlink ref="C10" r:id="rId10"/>
+    <hyperlink ref="B10" r:id="rId11"/>
+    <hyperlink ref="F10" r:id="rId12"/>
+    <hyperlink ref="F15" r:id="rId13"/>
+    <hyperlink ref="F16" r:id="rId14"/>
+    <hyperlink ref="F17" r:id="rId15"/>
+    <hyperlink ref="AE18" r:id="rId16"/>
+    <hyperlink ref="F7" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="17232" windowHeight="10860" tabRatio="571"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" tabRatio="571"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="119">
   <si>
     <t>UserName</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>mahendra</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>Akhil</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>4444444444444448</t>
   </si>
   <si>
@@ -312,9 +303,6 @@
     <t>oxo.qatesting@gmail.com</t>
   </si>
   <si>
-    <t>oxoqa@123</t>
-  </si>
-  <si>
     <t>Forgetpassword</t>
   </si>
   <si>
@@ -337,6 +325,57 @@
   </si>
   <si>
     <t>100845622</t>
+  </si>
+  <si>
+    <t>EmployeeDiscount</t>
+  </si>
+  <si>
+    <t>OXOEMPDIS40</t>
+  </si>
+  <si>
+    <t>NoTaxAddress</t>
+  </si>
+  <si>
+    <t>6303 Main St Apt B</t>
+  </si>
+  <si>
+    <t>New Port Richey</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>34653</t>
+  </si>
+  <si>
+    <t>Akhil@97</t>
+  </si>
+  <si>
+    <t>Cleaning&amp;Organization Page Title</t>
+  </si>
+  <si>
+    <t>Baby&amp;Toddler Page Title</t>
+  </si>
+  <si>
+    <t>OXO Good Grips Pop Containers: Kitchen &amp; Pantry Storage | OXO,Kitchen Sponges &amp; Scrubbing Brushes | OXO,Kitchen Countertop and Drawer Organizers | OXO,Bathroom Cleaning Tools: Shower &amp; Toilet Tools | OXO,Shower Caddies &amp; Suction Baskets | OXO,Brooms and Dusters - Home and Office - Cleaning &amp; Organization - Products,Mops and Household Brushes - Home and Office - Cleaning &amp; Organization - Products,Containers and Accessories - Home and Office - Cleaning &amp; Organization - Products,Closet Organizers - Home and Office - Cleaning &amp; Organization - Products</t>
+  </si>
+  <si>
+    <t>Feeding and Drinking - Baby &amp; Toddler - Products,Bath - Baby &amp; Toddler - Products,Cleaning - Baby &amp; Toddler - Products,On The Go - Baby &amp; Toddler - Products</t>
+  </si>
+  <si>
+    <t>Baby&amp;Toddler</t>
+  </si>
+  <si>
+    <t>Cleaning&amp;Organization</t>
+  </si>
+  <si>
+    <t>Feeding and Drinking,Bath,Cleaning,On the Go</t>
+  </si>
+  <si>
+    <t>POP Containers,Sponges &amp; Brushes,Sinkware,Countertop &amp; Drawer Organizers,Cleaning Tools,Shower &amp; Sink,Brooms &amp; Dusters,Mops &amp; Household Brushes,Containers &amp; Accessories,Closet Organizers</t>
+  </si>
+  <si>
+    <t>oxoqa@369</t>
   </si>
 </sst>
 </file>
@@ -695,7 +734,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -703,44 +742,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ22"/>
+  <dimension ref="A1:AO24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="6" max="6" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.44140625" customWidth="1"/>
     <col min="8" max="8" width="27.33203125" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="69.88671875" style="12" customWidth="1"/>
-    <col min="34" max="34" width="101.44140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="92.44140625" style="12" customWidth="1"/>
-    <col min="36" max="36" width="44.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="69.88671875" style="12" customWidth="1"/>
+    <col min="35" max="35" width="65.109375" customWidth="1"/>
+    <col min="36" max="36" width="92.44140625" style="12" customWidth="1"/>
+    <col min="37" max="37" width="44.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="51" customWidth="1"/>
+    <col min="39" max="39" width="33.5546875" customWidth="1"/>
+    <col min="40" max="40" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="99.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:41">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -760,137 +804,152 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="S1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="AD1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AI1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="AH1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI1" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJ1" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L3">
         <v>12345</v>
@@ -899,402 +958,460 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1"/>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P4" s="3">
         <v>2025</v>
       </c>
       <c r="Q4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R4" s="4">
         <v>123</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="M5" s="4">
         <v>8500563032</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>104</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="I6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J6" t="s">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" s="4">
+        <v>9898989898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" t="s">
         <v>33</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <v>46008</v>
+      </c>
+      <c r="M7">
+        <v>9998999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>21740</v>
+      </c>
+      <c r="M8" s="4">
+        <v>9898989898</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6">
-        <v>46008</v>
-      </c>
-      <c r="M6">
-        <v>9998999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
-      <c r="A7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7">
-        <v>21740</v>
-      </c>
-      <c r="M7" s="4">
-        <v>9898989898</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:41">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="T10" t="s">
+        <v>46</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:36">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="S9" t="s">
-        <v>49</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U9" t="s">
+      <c r="V10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41">
+      <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="V9" t="s">
+      <c r="B11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:41">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:36">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:36">
-      <c r="A11" t="s">
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="N11" t="s">
-        <v>59</v>
-      </c>
-      <c r="O11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11">
-        <v>2026</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>35</v>
-      </c>
-      <c r="R11">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="P12">
         <v>2026</v>
       </c>
       <c r="Q12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R12">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="P13">
         <v>2026</v>
       </c>
       <c r="Q13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R13">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14">
+        <v>2026</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16">
+        <v>9898989898</v>
+      </c>
+      <c r="X16">
+        <v>123456789</v>
+      </c>
+      <c r="Y16">
+        <v>987654321</v>
+      </c>
+      <c r="Z16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:41">
+      <c r="A18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18">
+        <v>9898989898</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:41">
+      <c r="A19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF19" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="N20" t="s">
         <v>57</v>
       </c>
-      <c r="G14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36">
-      <c r="A15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15">
-        <v>9898989898</v>
-      </c>
-      <c r="W15">
-        <v>123456789</v>
-      </c>
-      <c r="X15">
-        <v>987654321</v>
-      </c>
-      <c r="Y15" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA15" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36">
-      <c r="A16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36">
-      <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" t="s">
-        <v>70</v>
-      </c>
-      <c r="K17" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17">
-        <v>9898989898</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36">
-      <c r="A18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC18" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD18" t="s">
+      <c r="O20" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20">
+        <v>2026</v>
+      </c>
+      <c r="Q20" t="s">
         <v>80</v>
       </c>
-      <c r="AE18" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36">
-      <c r="A19" t="s">
+      <c r="R20">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:41">
+      <c r="A21" t="s">
+        <v>102</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c r="S21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO21" s="12"/>
+    </row>
+    <row r="22" spans="1:41">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:41">
+      <c r="A23" t="s">
         <v>81</v>
       </c>
-      <c r="N19" t="s">
-        <v>60</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="P19">
-        <v>2026</v>
-      </c>
-      <c r="Q19" t="s">
+      <c r="AG23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="R19">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36">
-      <c r="A21" t="s">
+    </row>
+    <row r="24" spans="1:41" ht="172.8">
+      <c r="A24" t="s">
         <v>84</v>
       </c>
-      <c r="AF21" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:36" ht="172.8">
-      <c r="A22" t="s">
+      <c r="AH24" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI24" t="s">
         <v>87</v>
       </c>
-      <c r="AG22" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI22" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJ22" s="12" t="s">
-        <v>92</v>
+      <c r="AJ24" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK24" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL24" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM24" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO24" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="F2" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F8" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="F9" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="T9" r:id="rId9"/>
-    <hyperlink ref="C10" r:id="rId10"/>
-    <hyperlink ref="B10" r:id="rId11"/>
-    <hyperlink ref="F10" r:id="rId12"/>
-    <hyperlink ref="F15" r:id="rId13"/>
-    <hyperlink ref="F16" r:id="rId14"/>
-    <hyperlink ref="F17" r:id="rId15"/>
-    <hyperlink ref="AE18" r:id="rId16"/>
-    <hyperlink ref="F7" r:id="rId17"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F9" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="F10" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId7"/>
+    <hyperlink ref="U10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="F11" r:id="rId11"/>
+    <hyperlink ref="F16" r:id="rId12"/>
+    <hyperlink ref="F17" r:id="rId13"/>
+    <hyperlink ref="F18" r:id="rId14"/>
+    <hyperlink ref="AF19" r:id="rId15"/>
+    <hyperlink ref="F8" r:id="rId16"/>
+    <hyperlink ref="B2" r:id="rId17"/>
+    <hyperlink ref="F6" r:id="rId18"/>
+    <hyperlink ref="C6" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -734,7 +734,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -745,7 +745,7 @@
   <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -755,7 +755,7 @@
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="6" max="6" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.33203125" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>

--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -186,9 +186,6 @@
     <t>Promocode</t>
   </si>
   <si>
-    <t>OXODIS40</t>
-  </si>
-  <si>
     <t>AMEX</t>
   </si>
   <si>
@@ -376,6 +373,9 @@
   </si>
   <si>
     <t>oxoqa@369</t>
+  </si>
+  <si>
+    <t>OXO15</t>
   </si>
 </sst>
 </file>
@@ -734,7 +734,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -745,7 +745,7 @@
   <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -840,7 +840,7 @@
         <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>40</v>
@@ -855,25 +855,25 @@
         <v>43</v>
       </c>
       <c r="X1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>5</v>
@@ -882,31 +882,31 @@
         <v>6</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="AJ1" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AM1" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="AN1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO1" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:41">
@@ -914,19 +914,19 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -940,7 +940,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -989,10 +989,10 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
@@ -1016,32 +1016,32 @@
     </row>
     <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="1"/>
       <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J6" t="s">
         <v>105</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>106</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="M6" s="4">
         <v>9898989898</v>
@@ -1055,7 +1055,7 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
         <v>33</v>
@@ -1075,25 +1075,25 @@
     </row>
     <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
       <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>98</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>99</v>
-      </c>
-      <c r="K8" t="s">
-        <v>100</v>
       </c>
       <c r="L8">
         <v>21740</v>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="1"/>
       <c r="T10" t="s">
@@ -1146,19 +1146,19 @@
         <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -1168,7 +1168,7 @@
         <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>51</v>
@@ -1188,7 +1188,7 @@
         <v>49</v>
       </c>
       <c r="N13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>52</v>
@@ -1208,7 +1208,7 @@
         <v>50</v>
       </c>
       <c r="N14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>53</v>
@@ -1228,15 +1228,15 @@
         <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
         <v>25</v>
@@ -1260,78 +1260,78 @@
         <v>987654321</v>
       </c>
       <c r="Z16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB16" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="AA16" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB16" s="8" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="J18" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" t="s">
-        <v>74</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="M18">
         <v>9898989898</v>
       </c>
       <c r="AC18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD19" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AE19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:41">
       <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="N20" t="s">
-        <v>57</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="P20">
         <v>2026</v>
       </c>
       <c r="Q20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R20">
         <v>123</v>
@@ -1339,11 +1339,11 @@
     </row>
     <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O21" s="8"/>
       <c r="S21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AO21" s="12"/>
     </row>
@@ -1354,39 +1354,39 @@
     </row>
     <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG23" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:41" ht="172.8">
       <c r="A24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH24" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ24" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK24" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL24" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM24" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="AM24" s="12" t="s">
-        <v>113</v>
-      </c>
       <c r="AN24" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO24" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="AO24" s="12" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A8FDAC-CB97-42EC-AD61-979020D8664F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" tabRatio="571"/>
+    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="120">
   <si>
     <t>UserName</t>
   </si>
@@ -376,16 +377,19 @@
   </si>
   <si>
     <t>OXO15</t>
+  </si>
+  <si>
+    <t>hpolsani@helenoftroy.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,57 +738,57 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.33203125" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="69.88671875" style="12" customWidth="1"/>
-    <col min="35" max="35" width="65.109375" customWidth="1"/>
-    <col min="36" max="36" width="92.44140625" style="12" customWidth="1"/>
-    <col min="37" max="37" width="44.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="69.85546875" style="12" customWidth="1"/>
+    <col min="35" max="35" width="65.140625" customWidth="1"/>
+    <col min="36" max="36" width="92.42578125" style="12" customWidth="1"/>
+    <col min="37" max="37" width="44.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="51" customWidth="1"/>
-    <col min="39" max="39" width="33.5546875" customWidth="1"/>
-    <col min="40" max="40" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="99.109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="33.5703125" customWidth="1"/>
+    <col min="40" max="40" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="99.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -909,7 +913,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:41">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -931,7 +935,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -942,6 +946,9 @@
       <c r="E3" t="s">
         <v>96</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="I3" t="s">
         <v>17</v>
       </c>
@@ -958,7 +965,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -980,7 +987,7 @@
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:41">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1014,7 +1021,7 @@
         <v>8500563032</v>
       </c>
     </row>
-    <row r="6" spans="1:41">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -1047,7 +1054,7 @@
         <v>9898989898</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1073,7 +1080,7 @@
         <v>9998999999</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -1102,7 +1109,7 @@
         <v>9898989898</v>
       </c>
     </row>
-    <row r="9" spans="1:41">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1117,7 +1124,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>93</v>
       </c>
@@ -1141,7 +1148,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1163,7 +1170,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1183,7 +1190,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1203,7 +1210,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1223,7 +1230,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1231,7 +1238,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1269,7 +1276,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -1277,7 +1284,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -1303,7 +1310,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1317,7 +1324,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1337,7 +1344,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -1347,12 +1354,12 @@
       </c>
       <c r="AO21" s="12"/>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -1360,7 +1367,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="172.8">
+    <row r="24" spans="1:41" ht="330" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -1391,27 +1398,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
-    <hyperlink ref="F9" r:id="rId4"/>
-    <hyperlink ref="C9" r:id="rId5"/>
-    <hyperlink ref="F10" r:id="rId6"/>
-    <hyperlink ref="C10" r:id="rId7"/>
-    <hyperlink ref="U10" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="F11" r:id="rId11"/>
-    <hyperlink ref="F16" r:id="rId12"/>
-    <hyperlink ref="F17" r:id="rId13"/>
-    <hyperlink ref="F18" r:id="rId14"/>
-    <hyperlink ref="AF19" r:id="rId15"/>
-    <hyperlink ref="F8" r:id="rId16"/>
-    <hyperlink ref="B2" r:id="rId17"/>
-    <hyperlink ref="F6" r:id="rId18"/>
-    <hyperlink ref="C6" r:id="rId19"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="U10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AF19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F3" r:id="rId20" xr:uid="{8B1553E9-B195-49E4-B0A5-319C2A2E637D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A8FDAC-CB97-42EC-AD61-979020D8664F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38D96D7-2904-4538-A8CA-D9652E793807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="129">
   <si>
     <t>UserName</t>
   </si>
@@ -380,6 +380,33 @@
   </si>
   <si>
     <t>hpolsani@helenoftroy.com</t>
+  </si>
+  <si>
+    <t>MagentoAccountDetails</t>
+  </si>
+  <si>
+    <t>ameesarakonda</t>
+  </si>
+  <si>
+    <t>NU5AgY~Fv8E`y+jd</t>
+  </si>
+  <si>
+    <t>ContentMenu</t>
+  </si>
+  <si>
+    <t>Pages,Blocks</t>
+  </si>
+  <si>
+    <t>CatalogMenu</t>
+  </si>
+  <si>
+    <t>Products,Categories</t>
+  </si>
+  <si>
+    <t>SalesMenu</t>
+  </si>
+  <si>
+    <t>Orders,Invoices,Shipments,Credit Memos,Returns,Billing Agreements,Transactions,Abandoned Carts,Braintree Virtual Terminal,Shipping Table Rates,Manual Export,Execution Log,Export Profiles,Export Destinations,Manual Import,Execution Log,Import Profiles,Import Sources</t>
   </si>
 </sst>
 </file>
@@ -746,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO24"/>
+  <dimension ref="A1:AP28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1303,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -1284,7 +1311,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -1310,7 +1337,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -1324,7 +1351,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -1344,7 +1371,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -1354,12 +1381,12 @@
       </c>
       <c r="AO21" s="12"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>80</v>
       </c>
@@ -1367,7 +1394,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:41" ht="330" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" ht="330" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -1394,6 +1421,41 @@
       </c>
       <c r="AO24" s="12" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38D96D7-2904-4538-A8CA-D9652E793807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42C00DC-794A-4CC0-9E72-10D2A2741401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="130">
   <si>
     <t>UserName</t>
   </si>
@@ -187,6 +187,9 @@
     <t>Promocode</t>
   </si>
   <si>
+    <t>OXODIS40</t>
+  </si>
+  <si>
     <t>AMEX</t>
   </si>
   <si>
@@ -376,37 +379,37 @@
     <t>oxoqa@369</t>
   </si>
   <si>
-    <t>OXO15</t>
+    <t>MagentoAccountDetails</t>
+  </si>
+  <si>
+    <t>ameesarakonda</t>
+  </si>
+  <si>
+    <t>NU5AgY~Fv8E`y+jd</t>
+  </si>
+  <si>
+    <t>SalesMenu</t>
+  </si>
+  <si>
+    <t>Megamenu</t>
+  </si>
+  <si>
+    <t>CatalogMenu</t>
+  </si>
+  <si>
+    <t>ContentMenu</t>
+  </si>
+  <si>
+    <t>Pages,Blocks</t>
+  </si>
+  <si>
+    <t>Products,Categories</t>
+  </si>
+  <si>
+    <t>Orders,Invoices,Shipments,Credit Memos,Returns,Billing Agreements,Transactions,Abandoned Carts,Braintree Virtual Terminal,Shipping Table Rates,Manual Export,Execution Log,Export Profiles,Export Destinations,Manual Import,Execution Log,Import Profiles,Import Sources</t>
   </si>
   <si>
     <t>hpolsani@helenoftroy.com</t>
-  </si>
-  <si>
-    <t>MagentoAccountDetails</t>
-  </si>
-  <si>
-    <t>ameesarakonda</t>
-  </si>
-  <si>
-    <t>NU5AgY~Fv8E`y+jd</t>
-  </si>
-  <si>
-    <t>ContentMenu</t>
-  </si>
-  <si>
-    <t>Pages,Blocks</t>
-  </si>
-  <si>
-    <t>CatalogMenu</t>
-  </si>
-  <si>
-    <t>Products,Categories</t>
-  </si>
-  <si>
-    <t>SalesMenu</t>
-  </si>
-  <si>
-    <t>Orders,Invoices,Shipments,Credit Memos,Returns,Billing Agreements,Transactions,Abandoned Carts,Braintree Virtual Terminal,Shipping Table Rates,Manual Export,Execution Log,Export Profiles,Export Destinations,Manual Import,Execution Log,Import Profiles,Import Sources</t>
   </si>
 </sst>
 </file>
@@ -775,47 +778,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="89.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="69.85546875" style="12" customWidth="1"/>
     <col min="35" max="35" width="65.140625" customWidth="1"/>
     <col min="36" max="36" width="92.42578125" style="12" customWidth="1"/>
     <col min="37" max="37" width="44.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="51" customWidth="1"/>
     <col min="39" max="39" width="33.5703125" customWidth="1"/>
-    <col min="40" max="40" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="222" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -871,7 +875,7 @@
         <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>40</v>
@@ -886,25 +890,25 @@
         <v>43</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE1" s="2" t="s">
         <v>5</v>
@@ -913,56 +917,59 @@
         <v>6</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH1" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ1" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -971,10 +978,10 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -992,7 +999,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1014,7 +1021,7 @@
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1023,10 +1030,10 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
@@ -1048,40 +1055,40 @@
         <v>8500563032</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G6" s="1"/>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" s="4">
         <v>9898989898</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1089,7 +1096,7 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s">
         <v>33</v>
@@ -1107,27 +1114,27 @@
         <v>9998999999</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L8">
         <v>21740</v>
@@ -1136,7 +1143,7 @@
         <v>9898989898</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1151,15 +1158,15 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1"/>
       <c r="T10" t="s">
@@ -1175,34 +1182,34 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
       <c r="N12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O12" s="8" t="s">
         <v>51</v>
@@ -1217,12 +1224,12 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>49</v>
       </c>
       <c r="N13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O13" s="8" t="s">
         <v>52</v>
@@ -1237,12 +1244,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
       <c r="N14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O14" s="8" t="s">
         <v>53</v>
@@ -1257,205 +1264,205 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16">
-        <v>9898989898</v>
-      </c>
-      <c r="X16">
-        <v>123456789</v>
-      </c>
-      <c r="Y16">
-        <v>987654321</v>
-      </c>
-      <c r="Z16" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB16" s="8" t="s">
-        <v>65</v>
+        <v>119</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>125</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" t="s">
-        <v>73</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="M18">
-        <v>9898989898</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>70</v>
+        <v>124</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD19" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF19" s="1" t="s">
-        <v>92</v>
+        <v>122</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="N20" t="s">
-        <v>56</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="P20">
-        <v>2026</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>79</v>
-      </c>
-      <c r="R20">
-        <v>123</v>
+        <v>59</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20">
+        <v>9898989898</v>
+      </c>
+      <c r="X20">
+        <v>123456789</v>
+      </c>
+      <c r="Y20">
+        <v>987654321</v>
+      </c>
+      <c r="Z20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB20" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
-      </c>
-      <c r="O21" s="8"/>
-      <c r="S21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AO21" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>69</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22">
+        <v>9898989898</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD23" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="N24" t="s">
+        <v>57</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P24">
+        <v>2026</v>
+      </c>
+      <c r="Q24" t="s">
         <v>80</v>
       </c>
-      <c r="AG23" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" ht="330" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH24" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ24" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="AK24" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL24" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM24" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO24" s="12" t="s">
-        <v>116</v>
+      <c r="R24">
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" t="s">
-        <v>122</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c r="S25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO25" s="12"/>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>124</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="AG27" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" ht="330" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>128</v>
+        <v>84</v>
+      </c>
+      <c r="AH28" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ28" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK28" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL28" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM28" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO28" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1471,15 +1478,15 @@
     <hyperlink ref="C11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="F11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F17" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="AF19" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AF23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
     <hyperlink ref="F8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="B2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="F6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="C6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F3" r:id="rId20" xr:uid="{8B1553E9-B195-49E4-B0A5-319C2A2E637D}"/>
+    <hyperlink ref="F3" r:id="rId20" xr:uid="{602918C5-1658-4904-89B3-1A9AC410FE96}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>

--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42C00DC-794A-4CC0-9E72-10D2A2741401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF728C8-F8ED-0B4C-880E-C02C3F9E8441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
   <si>
     <t>UserName</t>
   </si>
@@ -410,6 +410,27 @@
   </si>
   <si>
     <t>hpolsani@helenoftroy.com</t>
+  </si>
+  <si>
+    <t>ProductName</t>
+  </si>
+  <si>
+    <t>Steel 6-Piece POP Container Set</t>
+  </si>
+  <si>
+    <t>Instock</t>
+  </si>
+  <si>
+    <t>Outofstock</t>
+  </si>
+  <si>
+    <t>Out of Stock</t>
+  </si>
+  <si>
+    <t>In Stock</t>
+  </si>
+  <si>
+    <t>mail</t>
   </si>
 </sst>
 </file>
@@ -419,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +470,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -477,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -495,6 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -776,50 +804,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP28"/>
+  <dimension ref="A1:AT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="AV17" sqref="AV17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="89.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="69.85546875" style="12" customWidth="1"/>
-    <col min="35" max="35" width="65.140625" customWidth="1"/>
-    <col min="36" max="36" width="92.42578125" style="12" customWidth="1"/>
-    <col min="37" max="37" width="44.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="89.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="69.83203125" style="12" customWidth="1"/>
+    <col min="35" max="35" width="65.1640625" customWidth="1"/>
+    <col min="36" max="36" width="92.5" style="12" customWidth="1"/>
+    <col min="37" max="37" width="44.5" style="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="51" customWidth="1"/>
-    <col min="39" max="39" width="33.5703125" customWidth="1"/>
-    <col min="40" max="40" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="33.5" customWidth="1"/>
+    <col min="40" max="40" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="99.1640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="222" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -946,8 +978,20 @@
       <c r="AP1" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="AQ1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -969,7 +1013,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -999,7 +1043,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1021,7 +1065,7 @@
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1055,7 +1099,7 @@
         <v>8500563032</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -1088,7 +1132,7 @@
         <v>9898989898</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1114,7 +1158,7 @@
         <v>9998999999</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -1143,7 +1187,7 @@
         <v>9898989898</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1158,7 +1202,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -1182,7 +1226,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1204,7 +1248,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1224,7 +1268,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1244,7 +1288,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1264,7 +1308,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1272,7 +1316,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>119</v>
       </c>
@@ -1282,8 +1326,21 @@
       <c r="C16" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+      <c r="AQ16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR16" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -1291,7 +1348,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>124</v>
       </c>
@@ -1299,7 +1356,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -1307,7 +1364,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -1345,7 +1402,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -1353,7 +1410,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -1379,7 +1436,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -1393,7 +1450,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -1413,7 +1470,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>102</v>
       </c>
@@ -1423,12 +1480,12 @@
       </c>
       <c r="AO25" s="12"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>81</v>
       </c>
@@ -1436,7 +1493,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="330" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" ht="304" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>84</v>
       </c>
@@ -1487,8 +1544,9 @@
     <hyperlink ref="F6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="C6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="F3" r:id="rId20" xr:uid="{602918C5-1658-4904-89B3-1A9AC410FE96}"/>
+    <hyperlink ref="AT16" r:id="rId21" xr:uid="{4D79D8C6-FFB4-FE45-A365-C2E462DA3255}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF728C8-F8ED-0B4C-880E-C02C3F9E8441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08595E5A-B503-46CF-94C3-984347B85535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="145">
   <si>
     <t>UserName</t>
   </si>
@@ -253,9 +253,6 @@
     <t>OrderID</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>InvalidPaymentDetails</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
     <t>Maryland</t>
   </si>
   <si>
-    <t>100845622</t>
-  </si>
-  <si>
     <t>EmployeeDiscount</t>
   </si>
   <si>
@@ -337,18 +331,6 @@
     <t>NoTaxAddress</t>
   </si>
   <si>
-    <t>6303 Main St Apt B</t>
-  </si>
-  <si>
-    <t>New Port Richey</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>34653</t>
-  </si>
-  <si>
     <t>Akhil@97</t>
   </si>
   <si>
@@ -431,6 +413,48 @@
   </si>
   <si>
     <t>mail</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Provincce</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>prasad.polsani@gmail.com</t>
+  </si>
+  <si>
+    <t>Store</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>100877621</t>
+  </si>
+  <si>
+    <t>Email1</t>
+  </si>
+  <si>
+    <t>Password1</t>
+  </si>
+  <si>
+    <t>QAtest@123</t>
+  </si>
+  <si>
+    <t>PO Box 26321</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
   </si>
 </sst>
 </file>
@@ -440,7 +464,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -523,6 +547,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -804,54 +829,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT28"/>
+  <dimension ref="A1:AX28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="AV17" sqref="AV17"/>
+      <selection activeCell="AW6" sqref="AW6:AX6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5" customWidth="1"/>
-    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="89.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="69.83203125" style="12" customWidth="1"/>
-    <col min="35" max="35" width="65.1640625" customWidth="1"/>
-    <col min="36" max="36" width="92.5" style="12" customWidth="1"/>
-    <col min="37" max="37" width="44.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="89.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="69.85546875" style="12" customWidth="1"/>
+    <col min="35" max="35" width="65.140625" customWidth="1"/>
+    <col min="36" max="36" width="92.42578125" style="12" customWidth="1"/>
+    <col min="37" max="37" width="44.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="51" customWidth="1"/>
-    <col min="39" max="39" width="33.5" customWidth="1"/>
-    <col min="40" max="40" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="99.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="33.42578125" customWidth="1"/>
+    <col min="40" max="40" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="99.140625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="222" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:50">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -907,7 +935,7 @@
         <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>40</v>
@@ -943,77 +971,95 @@
         <v>76</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AH1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AI1" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="AJ1" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AQ1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AS1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AV1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AW2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1022,10 +1068,10 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -1043,7 +1089,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1065,7 +1111,7 @@
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1074,10 +1120,10 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
@@ -1099,40 +1145,46 @@
         <v>8500563032</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="1"/>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>108</v>
+        <v>142</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="M6" s="4">
         <v>9898989898</v>
       </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
+      <c r="AW6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX6" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:50">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1140,7 +1192,7 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I7" t="s">
         <v>33</v>
@@ -1158,27 +1210,27 @@
         <v>9998999999</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
       <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>98</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>99</v>
-      </c>
-      <c r="K8" t="s">
-        <v>100</v>
       </c>
       <c r="L8">
         <v>21740</v>
@@ -1187,7 +1239,7 @@
         <v>9898989898</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1202,15 +1254,15 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="1"/>
       <c r="T10" t="s">
@@ -1226,29 +1278,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50">
       <c r="A11" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1268,7 +1320,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1288,7 +1340,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1308,7 +1360,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1316,60 +1368,66 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F16" s="1"/>
       <c r="AQ16" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="AR16" s="13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AS16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AP17" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AP18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48">
       <c r="A19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP19" t="s">
         <v>122</v>
       </c>
-      <c r="AP19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:48">
       <c r="A20" t="s">
         <v>59</v>
       </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="I20" t="s">
         <v>25</v>
@@ -1396,26 +1454,41 @@
         <v>65</v>
       </c>
       <c r="AA20" s="8" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="AB20" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="AC20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48">
       <c r="A21" t="s">
         <v>68</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48">
       <c r="A22" t="s">
         <v>69</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I22" t="s">
         <v>72</v>
@@ -1436,90 +1509,90 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:48">
       <c r="A23" t="s">
         <v>75</v>
       </c>
       <c r="AD23" s="8" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="AE23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48">
+      <c r="A24" t="s">
         <v>77</v>
-      </c>
-      <c r="AF23" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>78</v>
       </c>
       <c r="N24" t="s">
         <v>57</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P24">
         <v>2026</v>
       </c>
       <c r="Q24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R24">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:48">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O25" s="8"/>
       <c r="S25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AO25" s="12"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:48">
       <c r="A26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:48">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AG27" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" ht="330">
+      <c r="A28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="28" spans="1:42" ht="304" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>84</v>
-      </c>
       <c r="AH28" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AI28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AJ28" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK28" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AL28" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AM28" s="12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AN28" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AO28" s="12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1535,18 +1608,23 @@
     <hyperlink ref="C11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="F11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="F22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="AF23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="F8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="F3" r:id="rId20" xr:uid="{602918C5-1658-4904-89B3-1A9AC410FE96}"/>
-    <hyperlink ref="AT16" r:id="rId21" xr:uid="{4D79D8C6-FFB4-FE45-A365-C2E462DA3255}"/>
+    <hyperlink ref="F21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="AF23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F8" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B2" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F6" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F3" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AT16" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="AF20" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AW2" r:id="rId23" xr:uid="{89A656F7-9B52-418C-8C75-81E18D1636E7}"/>
+    <hyperlink ref="AX2" r:id="rId24" xr:uid="{2FE5B1E5-DF21-4CF5-9D07-3809918DA74C}"/>
+    <hyperlink ref="AW6" r:id="rId25" xr:uid="{84579FDF-32F7-4209-A73D-37E3B8F7E8A6}"/>
+    <hyperlink ref="AX6" r:id="rId26" xr:uid="{F56AC729-6429-4461-AE83-7783EE080F77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
--- a/src/test/resources/TestData/oxo/OxoTestData.xlsx
+++ b/src/test/resources/TestData/oxo/OxoTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10912"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08595E5A-B503-46CF-94C3-984347B85535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF728C8-F8ED-0B4C-880E-C02C3F9E8441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="137">
   <si>
     <t>UserName</t>
   </si>
@@ -253,6 +253,9 @@
     <t>OrderID</t>
   </si>
   <si>
+    <t>Test</t>
+  </si>
+  <si>
     <t>InvalidPaymentDetails</t>
   </si>
   <si>
@@ -322,6 +325,9 @@
     <t>Maryland</t>
   </si>
   <si>
+    <t>100845622</t>
+  </si>
+  <si>
     <t>EmployeeDiscount</t>
   </si>
   <si>
@@ -331,6 +337,18 @@
     <t>NoTaxAddress</t>
   </si>
   <si>
+    <t>6303 Main St Apt B</t>
+  </si>
+  <si>
+    <t>New Port Richey</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>34653</t>
+  </si>
+  <si>
     <t>Akhil@97</t>
   </si>
   <si>
@@ -413,48 +431,6 @@
   </si>
   <si>
     <t>mail</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>Provincce</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>prasad.polsani@gmail.com</t>
-  </si>
-  <si>
-    <t>Store</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>100877621</t>
-  </si>
-  <si>
-    <t>Email1</t>
-  </si>
-  <si>
-    <t>Password1</t>
-  </si>
-  <si>
-    <t>QAtest@123</t>
-  </si>
-  <si>
-    <t>PO Box 26321</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>20001</t>
-  </si>
-  <si>
-    <t>District of Columbia</t>
   </si>
 </sst>
 </file>
@@ -464,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,7 +504,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -547,7 +523,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -829,57 +804,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX28"/>
+  <dimension ref="A1:AT28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="AW6" sqref="AW6:AX6"/>
+      <selection activeCell="AV17" sqref="AV17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.5" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="89.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="69.85546875" style="12" customWidth="1"/>
-    <col min="35" max="35" width="65.140625" customWidth="1"/>
-    <col min="36" max="36" width="92.42578125" style="12" customWidth="1"/>
-    <col min="37" max="37" width="44.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="89.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="69.83203125" style="12" customWidth="1"/>
+    <col min="35" max="35" width="65.1640625" customWidth="1"/>
+    <col min="36" max="36" width="92.5" style="12" customWidth="1"/>
+    <col min="37" max="37" width="44.5" style="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="51" customWidth="1"/>
-    <col min="39" max="39" width="33.42578125" customWidth="1"/>
-    <col min="40" max="40" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="99.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="33.5" customWidth="1"/>
+    <col min="40" max="40" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="99.1640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="222" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:46" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -935,7 +907,7 @@
         <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>40</v>
@@ -971,95 +943,77 @@
         <v>76</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH1" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AJ1" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AK1" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="AW2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50">
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1068,10 +1022,10 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -1089,7 +1043,7 @@
         <v>9898989899</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1111,7 +1065,7 @@
       </c>
       <c r="S4" s="4"/>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1120,10 +1074,10 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
@@ -1145,46 +1099,40 @@
         <v>8500563032</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
       </c>
       <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="G6" s="1"/>
       <c r="I6" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="J6" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>143</v>
+        <v>107</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="M6" s="4">
         <v>9898989898</v>
       </c>
-      <c r="AW6" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX6" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:50">
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1192,7 +1140,7 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s">
         <v>33</v>
@@ -1210,27 +1158,27 @@
         <v>9998999999</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L8">
         <v>21740</v>
@@ -1239,7 +1187,7 @@
         <v>9898989898</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1254,15 +1202,15 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1"/>
       <c r="T10" t="s">
@@ -1278,29 +1226,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1320,7 +1268,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1340,7 +1288,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1360,7 +1308,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1368,66 +1316,60 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F16" s="1"/>
       <c r="AQ16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR16" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>125</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS16" t="s">
+      <c r="AP17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP19" t="s">
         <v>128</v>
       </c>
-      <c r="AT16" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:48">
-      <c r="A17" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:48">
-      <c r="A18" t="s">
-        <v>118</v>
-      </c>
-      <c r="AP18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:48">
-      <c r="A19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:48">
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" t="s">
-        <v>96</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s">
         <v>25</v>
@@ -1454,41 +1396,26 @@
         <v>65</v>
       </c>
       <c r="AA20" s="8" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="AB20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AC20" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF20" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>17</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:48">
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>68</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="1:48">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>69</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s">
         <v>72</v>
@@ -1509,90 +1436,90 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>75</v>
       </c>
       <c r="AD23" s="8" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="AE23" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="AF23" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:48">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N24" t="s">
         <v>57</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P24">
         <v>2026</v>
       </c>
       <c r="Q24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R24">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O25" s="8"/>
       <c r="S25" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AO25" s="12"/>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:48">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG27" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:48" ht="330">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" ht="304" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AH28" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ28" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AI28" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ28" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="AK28" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AL28" s="12" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AM28" s="12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AN28" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="AO28" s="12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1608,23 +1535,18 @@
     <hyperlink ref="C11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="F11" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="F21" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="F22" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="AF23" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="F8" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B2" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="F6" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="F3" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="AT16" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="F20" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="AF20" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="AW2" r:id="rId23" xr:uid="{89A656F7-9B52-418C-8C75-81E18D1636E7}"/>
-    <hyperlink ref="AX2" r:id="rId24" xr:uid="{2FE5B1E5-DF21-4CF5-9D07-3809918DA74C}"/>
-    <hyperlink ref="AW6" r:id="rId25" xr:uid="{84579FDF-32F7-4209-A73D-37E3B8F7E8A6}"/>
-    <hyperlink ref="AX6" r:id="rId26" xr:uid="{F56AC729-6429-4461-AE83-7783EE080F77}"/>
+    <hyperlink ref="F20" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AF23" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B2" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F6" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C6" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F3" r:id="rId20" xr:uid="{602918C5-1658-4904-89B3-1A9AC410FE96}"/>
+    <hyperlink ref="AT16" r:id="rId21" xr:uid="{4D79D8C6-FFB4-FE45-A365-C2E462DA3255}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>